--- a/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43554</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42886</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42521</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42155</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41790</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41425</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41060</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40694</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1369700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1360000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1064700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>236500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>211800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>153100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1090800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1114700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>887600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>214500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>169900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>166100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>178000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>160500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E10" s="3">
         <v>245400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>177100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,21 +943,24 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="3">
         <v>4800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -951,15 +973,18 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1283300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1389800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1010100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>236200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>209600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>190800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>188200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>202200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>189000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,20 +1083,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1072,131 +1105,143 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>56500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E24" s="3">
         <v>16900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,14 +1404,17 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1363,26 +1423,29 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4600</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,21 +1512,24 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1468,53 +1537,59 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43554</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42886</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42521</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42155</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41790</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41425</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41060</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40694</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,206 +1732,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E41" s="3">
         <v>126600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E43" s="3">
         <v>57600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E44" s="3">
         <v>122600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>98000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>398800</v>
+      </c>
+      <c r="E46" s="3">
         <v>318300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>263100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1862,69 +1966,75 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>1600</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E48" s="3">
         <v>108600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11600</v>
       </c>
       <c r="H48" s="3">
         <v>11600</v>
       </c>
       <c r="I48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J48" s="3">
         <v>14000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>21200</v>
       </c>
       <c r="K48" s="3">
         <v>21200</v>
       </c>
       <c r="L48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M48" s="3">
         <v>24800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E49" s="3">
         <v>222300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1937,15 +2047,18 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E52" s="3">
         <v>50700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>781700</v>
+      </c>
+      <c r="E54" s="3">
         <v>700000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>395400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,53 +2268,57 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E57" s="3">
         <v>43400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3900</v>
       </c>
       <c r="G57" s="3">
         <v>3900</v>
       </c>
       <c r="H57" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
       </c>
       <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E58" s="3">
         <v>33300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2198,92 +2331,101 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E59" s="3">
         <v>129600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E60" s="3">
         <v>206300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>167100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>14700</v>
       </c>
       <c r="L60" s="3">
         <v>14700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E61" s="3">
         <v>54300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>58900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4300</v>
       </c>
       <c r="G61" s="3">
         <v>4300</v>
@@ -2292,53 +2434,59 @@
         <v>4300</v>
       </c>
       <c r="I61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J61" s="3">
         <v>6300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E62" s="3">
         <v>27300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E66" s="3">
         <v>288000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>242100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>85600</v>
       </c>
       <c r="G72" s="3">
         <v>85600</v>
       </c>
       <c r="H72" s="3">
+        <v>85600</v>
+      </c>
+      <c r="I72" s="3">
         <v>83900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>94300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>106200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>137500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>474300</v>
+      </c>
+      <c r="E76" s="3">
         <v>412000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43554</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42886</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42521</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42155</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41790</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41425</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41060</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40694</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E89" s="3">
         <v>65200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>32100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,20 +3525,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-65300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3320,14 +3553,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,54 +3666,60 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-72500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,46 +3732,52 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>SKY</t>
   </si>
@@ -1143,8 +1143,8 @@
       <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
-        <v>-5500</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>-8500</v>
@@ -3121,8 +3121,8 @@
       <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
-        <v>1700</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
@@ -3497,8 +3497,8 @@
       <c r="I94" s="3">
         <v>5600</v>
       </c>
-      <c r="J94" s="3">
-        <v>5500</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>13900</v>
@@ -3693,8 +3693,8 @@
       <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
-        <v>6300</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43554</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42886</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42521</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42155</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41790</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41425</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41060</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40694</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1420900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1369700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1360000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1064700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>236500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>211800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>187000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>153100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>182800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1133200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1090800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1114700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>887600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>214500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>169900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>166100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>160500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E10" s="3">
         <v>279000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>245400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>177100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,18 +927,21 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -937,8 +957,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,24 +966,27 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>5400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
@@ -976,15 +999,18 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1306200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1283300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1389800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1010100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>236200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>209600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>190800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>202200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>189000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E18" s="3">
         <v>86500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,23 +1117,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1108,143 +1142,155 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E21" s="3">
         <v>108200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>56500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E23" s="3">
         <v>85100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E24" s="3">
         <v>26900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1263,9 +1309,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E26" s="3">
         <v>58200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E27" s="3">
         <v>58000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,17 +1465,20 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1426,26 +1487,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,24 +1582,27 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1540,56 +1610,62 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E33" s="3">
         <v>58000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E35" s="3">
         <v>58000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43554</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42886</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42521</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42155</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41790</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41425</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41060</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40694</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1819,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E41" s="3">
         <v>209500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>113700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,248 +1886,269 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E43" s="3">
         <v>45700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E44" s="3">
         <v>126400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>98000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>499800</v>
+      </c>
+      <c r="E46" s="3">
         <v>398800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>263100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>1600</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E48" s="3">
         <v>124100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>11600</v>
       </c>
       <c r="I48" s="3">
         <v>11600</v>
       </c>
       <c r="J48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>21200</v>
       </c>
       <c r="L48" s="3">
         <v>21200</v>
       </c>
       <c r="M48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N48" s="3">
         <v>24800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E49" s="3">
         <v>216900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>222300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2050,15 +2161,18 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E52" s="3">
         <v>41900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>917900</v>
+      </c>
+      <c r="E54" s="3">
         <v>781700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>395400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>99100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,59 +2399,63 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E57" s="3">
         <v>38700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3900</v>
       </c>
       <c r="H57" s="3">
         <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
       </c>
       <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E58" s="3">
         <v>33900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2334,101 +2468,110 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E59" s="3">
         <v>114000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E60" s="3">
         <v>186600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>206300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>167100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>14700</v>
       </c>
       <c r="M60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E61" s="3">
         <v>77300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>54300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4300</v>
       </c>
       <c r="H61" s="3">
         <v>4300</v>
@@ -2437,56 +2580,62 @@
         <v>4300</v>
       </c>
       <c r="J61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K61" s="3">
         <v>6300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E62" s="3">
         <v>43400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>349300</v>
+      </c>
+      <c r="E66" s="3">
         <v>307400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>242100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>82900</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-58200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>85600</v>
       </c>
       <c r="H72" s="3">
         <v>85600</v>
       </c>
       <c r="I72" s="3">
+        <v>85600</v>
+      </c>
+      <c r="J72" s="3">
         <v>83900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>94300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>106200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>137500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>568600</v>
+      </c>
+      <c r="E76" s="3">
         <v>474300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>412000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43554</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42886</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42521</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42155</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41790</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41425</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41060</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40694</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E81" s="3">
         <v>58000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E83" s="3">
         <v>18500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E89" s="3">
         <v>76700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>13900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>32100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3535,14 +3769,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-65300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3556,14 +3790,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,60 +3912,66 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E100" s="3">
         <v>21600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-72500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3735,49 +3984,55 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E102" s="3">
         <v>82800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>SKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42886</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42521</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42155</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41790</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41425</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41060</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40694</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2207200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1420900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1369700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1360000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1064700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>236500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>211800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>187000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>153100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>182800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>162300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1618100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1133200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1090800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1114700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>887600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>214500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>169900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>166100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>160500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>589100</v>
+      </c>
+      <c r="E10" s="3">
         <v>287700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>279000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>245400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>177100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,21 +946,24 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -960,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -969,27 +988,30 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>5400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1002,15 +1024,18 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1874300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1306200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1283300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1389800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1010100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>236200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>209600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>190800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>202200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>189000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>332900</v>
+      </c>
+      <c r="E18" s="3">
         <v>114600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>86500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,26 +1150,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1145,155 +1178,167 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>354600</v>
+      </c>
+      <c r="E21" s="3">
         <v>132900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-8500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E23" s="3">
         <v>111400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>85100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E24" s="3">
         <v>26500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1312,9 +1357,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E26" s="3">
         <v>84900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>58200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E27" s="3">
         <v>84800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>58000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1480,8 +1540,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1490,26 +1550,29 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,27 +1651,30 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1613,59 +1682,65 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E33" s="3">
         <v>84800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E35" s="3">
         <v>84800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42886</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42521</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42155</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41790</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41425</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41060</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40694</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E41" s="3">
         <v>262600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>209500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1889,173 +1978,188 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E43" s="3">
         <v>57500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>241300</v>
+      </c>
+      <c r="E44" s="3">
         <v>166100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>126400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>782300</v>
+      </c>
+      <c r="E46" s="3">
         <v>499800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>398800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>263100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2081,77 +2185,83 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>1600</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E48" s="3">
         <v>126600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>11600</v>
       </c>
       <c r="J48" s="3">
         <v>11600</v>
       </c>
       <c r="K48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L48" s="3">
         <v>14000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>21200</v>
       </c>
       <c r="M48" s="3">
         <v>21200</v>
       </c>
       <c r="N48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="O48" s="3">
         <v>24800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>243300</v>
+      </c>
+      <c r="E49" s="3">
         <v>250600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>216900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>222300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,15 +2274,18 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E52" s="3">
         <v>40900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1234600</v>
+      </c>
+      <c r="E54" s="3">
         <v>917900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>781700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>395400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>50400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>99100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,65 +2529,69 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E57" s="3">
         <v>57200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3900</v>
       </c>
       <c r="I57" s="3">
         <v>3900</v>
       </c>
       <c r="J57" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
       </c>
       <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E58" s="3">
         <v>25700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2471,110 +2604,119 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222500</v>
+      </c>
+      <c r="E59" s="3">
         <v>180700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>350100</v>
+      </c>
+      <c r="E60" s="3">
         <v>263600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>186600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>206300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>167100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>14700</v>
       </c>
       <c r="N60" s="3">
         <v>14700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E61" s="3">
         <v>39300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>54300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>58900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4300</v>
       </c>
       <c r="I61" s="3">
         <v>4300</v>
@@ -2583,59 +2725,65 @@
         <v>4300</v>
       </c>
       <c r="K61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L61" s="3">
         <v>6300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E62" s="3">
         <v>46300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>409500</v>
+      </c>
+      <c r="E66" s="3">
         <v>349300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>307400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>242100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E72" s="3">
         <v>82900</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-58200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>85600</v>
       </c>
       <c r="I72" s="3">
         <v>85600</v>
       </c>
       <c r="J72" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K72" s="3">
         <v>83900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>94300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>106200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>137500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>825100</v>
+      </c>
+      <c r="E76" s="3">
         <v>568600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>474300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>412000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42886</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42521</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42155</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41790</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41425</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41060</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40694</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E81" s="3">
         <v>84800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E83" s="3">
         <v>17700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E89" s="3">
         <v>153900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>13900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>32100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3772,14 +4005,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-65300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3793,14 +4026,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,66 +4157,72 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-47800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-72500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3987,52 +4235,58 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E102" s="3">
         <v>53100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>82800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,203 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42886</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42521</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42155</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41790</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41425</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41060</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40694</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2606600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2207200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1420900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1369700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1360000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1064700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>236500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>211800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>187000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>153100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>182800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>162300</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1787900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1618100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1133200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1090800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1114700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>887600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>214500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>160500</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>818700</v>
+      </c>
+      <c r="E10" s="3">
         <v>589100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>279000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>245400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>177100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,9 +920,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,24 +965,27 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
@@ -982,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -991,9 +1010,12 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,18 +1025,18 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>5400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,15 +1049,18 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1049,92 +1074,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2088300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1874300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1306200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1283300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1389800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1010100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>236200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>209600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>190800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>202200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>189000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>518300</v>
+      </c>
+      <c r="E18" s="3">
         <v>332900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>86500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>54600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26700</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,29 +1183,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1181,167 +1214,179 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>563900</v>
+      </c>
+      <c r="E21" s="3">
         <v>354600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>132900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23900</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E23" s="3">
         <v>330400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>85100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26600</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E24" s="3">
         <v>82400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1360,9 +1405,12 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,93 +1450,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E26" s="3">
         <v>248000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>84900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>58200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26600</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E27" s="3">
         <v>248000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>84800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>58000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26600</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1528,9 +1585,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1543,8 +1603,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1553,26 +1613,29 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1612,9 +1675,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1654,30 +1720,33 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1685,62 +1754,68 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E33" s="3">
         <v>248000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>84800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>58000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26600</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,98 +1855,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E35" s="3">
         <v>248000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>84800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>58000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26600</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42886</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42521</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42155</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41790</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41425</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41060</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40694</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +1972,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1906,50 +1991,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>747500</v>
+      </c>
+      <c r="E41" s="3">
         <v>435400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>262600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>209500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9700</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1981,185 +2070,200 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35000</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E43" s="3">
         <v>90500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11500</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>202200</v>
+      </c>
+      <c r="E44" s="3">
         <v>241300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>166100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>126400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8700</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>15000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1043500</v>
+      </c>
+      <c r="E46" s="3">
         <v>782300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>499800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>398800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>318300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>263100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>51500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68400</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2188,83 +2292,89 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>1600</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E48" s="3">
         <v>144200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>126600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>108600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>11600</v>
       </c>
       <c r="K48" s="3">
         <v>11600</v>
       </c>
       <c r="L48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M48" s="3">
         <v>14000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>21200</v>
       </c>
       <c r="N48" s="3">
         <v>21200</v>
       </c>
       <c r="O48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="P48" s="3">
         <v>24800</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E49" s="3">
         <v>243300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>250600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>216900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>222300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2277,15 +2387,18 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2325,9 +2438,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2367,51 +2483,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E52" s="3">
         <v>65000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>59600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2451,51 +2573,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1234600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>917900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>781700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>395400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99100</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2512,8 +2640,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2530,71 +2659,75 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E57" s="3">
         <v>92200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3900</v>
       </c>
       <c r="J57" s="3">
         <v>3900</v>
       </c>
       <c r="K57" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
       </c>
       <c r="M57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>35500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2607,99 +2740,108 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E59" s="3">
         <v>222500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>180700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11300</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E60" s="3">
         <v>350100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>263600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>186600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>206300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>167100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>14700</v>
       </c>
       <c r="O60" s="3">
         <v>14700</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2707,19 +2849,19 @@
         <v>12400</v>
       </c>
       <c r="E61" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F61" s="3">
         <v>39300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>77300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>54300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>58900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>4300</v>
       </c>
       <c r="J61" s="3">
         <v>4300</v>
@@ -2728,62 +2870,68 @@
         <v>4300</v>
       </c>
       <c r="L61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M61" s="3">
         <v>6300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E62" s="3">
         <v>47000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>43400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7300</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2823,9 +2971,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2865,9 +3016,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2907,51 +3061,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E66" s="3">
         <v>409500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>349300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>307400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>242100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22100</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2968,8 +3128,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3009,9 +3170,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3051,9 +3215,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3093,9 +3260,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3135,51 +3305,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>725700</v>
+      </c>
+      <c r="E72" s="3">
         <v>327900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82900</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>-58200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>85600</v>
       </c>
       <c r="J72" s="3">
         <v>85600</v>
       </c>
       <c r="K72" s="3">
+        <v>85600</v>
+      </c>
+      <c r="L72" s="3">
         <v>83900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>94300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>106200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>137500</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3219,9 +3395,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3261,9 +3440,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3303,51 +3485,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E76" s="3">
         <v>825100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>568600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>474300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>412000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3387,98 +3575,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42886</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42521</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42155</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41790</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41425</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41060</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40694</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E81" s="3">
         <v>248000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>84800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>58000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26600</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3495,50 +3692,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E83" s="3">
         <v>20900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3578,9 +3779,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3620,9 +3824,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3662,9 +3869,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3704,9 +3914,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3746,51 +3959,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>416200</v>
+      </c>
+      <c r="E89" s="3">
         <v>224500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>153900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>65200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25600</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3807,50 +4026,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,9 +4113,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3932,51 +4158,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>13900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>32100</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3993,8 +4225,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4008,14 +4241,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-65300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4029,14 +4262,17 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4076,9 +4312,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4118,9 +4357,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4160,72 +4402,78 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-72500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4238,55 +4486,61 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E102" s="3">
         <v>172800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>82800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
